--- a/BugReport_2_MQA_Anastasia_Stryzhak.xlsx
+++ b/BugReport_2_MQA_Anastasia_Stryzhak.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1_QA_Deveducation\Git_Finish_MQA_Anastasia_Stryzhak\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D7A72B-19FA-4EBD-954B-A4D0D66EFCB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -148,20 +157,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -171,7 +185,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,7 +201,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -201,6 +221,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -212,6 +233,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -220,6 +243,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -228,60 +254,60 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -292,11 +318,17 @@
     <xdr:ext cx="390525" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -320,11 +352,17 @@
     <xdr:ext cx="390525" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="3" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -348,11 +386,17 @@
     <xdr:ext cx="400050" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="4" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -376,11 +420,17 @@
     <xdr:ext cx="390525" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="5" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -404,11 +454,17 @@
     <xdr:ext cx="381000" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="6" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -426,7 +482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -616,27 +672,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="25.75"/>
-    <col customWidth="1" min="5" max="5" width="25.5"/>
-    <col customWidth="1" min="8" max="8" width="37.75"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,467 +723,468 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="4" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4" t="s">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4" t="s">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>